--- a/mosip_master/xlsx/machine_spec.xlsx
+++ b/mosip_master/xlsx/machine_spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mahesh.Binayak\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mosip\Inteijj project\SLN-Pilot-1.2.0.1\SLN-mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02C32D9E-E4A3-4778-BEBB-461C12B4F221}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18776FFD-617A-4476-AA03-F1C5FF72DB19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -455,23 +455,23 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="30.85546875" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="30.88671875" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="8" width="24.85546875" customWidth="1"/>
+    <col min="5" max="5" width="7.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="8" width="24.88671875" customWidth="1"/>
     <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -500,7 +500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>9</v>
       </c>
